--- a/newOneDrive/rev0.1.xlsx
+++ b/newOneDrive/rev0.1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71696C68-D797-4D84-9795-9C34B305AA63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{114ACBBB-F622-4AF3-AD62-13981367783A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2203022F-1124-4AC5-A094-4D0F345F1B7F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1079,6 +1079,18 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1086,18 +1098,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1667,8 +1667,8 @@
   <dimension ref="B1:BO36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG29" sqref="AG29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -1723,342 +1723,342 @@
         <v>7</v>
       </c>
       <c r="D3" s="63"/>
-      <c r="E3" s="112" t="s">
+      <c r="E3" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="118">
+      <c r="F3" s="117"/>
+      <c r="G3" s="115">
         <f ca="1">TODAY() +34</f>
-        <v>44171</v>
-      </c>
-      <c r="H3" s="118"/>
+        <v>44159</v>
+      </c>
+      <c r="H3" s="115"/>
     </row>
     <row r="4" spans="2:66" ht="30" customHeight="1">
       <c r="B4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="113"/>
+      <c r="F4" s="117"/>
       <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="115">
+      <c r="K4" s="112">
         <f ca="1">K5</f>
+        <v>44158</v>
+      </c>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="112">
+        <f ca="1">R5</f>
+        <v>44165</v>
+      </c>
+      <c r="S4" s="113"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="113"/>
+      <c r="V4" s="113"/>
+      <c r="W4" s="113"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="112">
+        <f ca="1">Y5</f>
         <v>44172</v>
       </c>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="115">
-        <f ca="1">R5</f>
+      <c r="Z4" s="113"/>
+      <c r="AA4" s="113"/>
+      <c r="AB4" s="113"/>
+      <c r="AC4" s="113"/>
+      <c r="AD4" s="113"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="112">
+        <f ca="1">AF5</f>
         <v>44179</v>
       </c>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="115">
-        <f ca="1">Y5</f>
+      <c r="AG4" s="113"/>
+      <c r="AH4" s="113"/>
+      <c r="AI4" s="113"/>
+      <c r="AJ4" s="113"/>
+      <c r="AK4" s="113"/>
+      <c r="AL4" s="114"/>
+      <c r="AM4" s="112">
+        <f ca="1">AM5</f>
         <v>44186</v>
       </c>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="117"/>
-      <c r="AF4" s="115">
-        <f ca="1">AF5</f>
+      <c r="AN4" s="113"/>
+      <c r="AO4" s="113"/>
+      <c r="AP4" s="113"/>
+      <c r="AQ4" s="113"/>
+      <c r="AR4" s="113"/>
+      <c r="AS4" s="114"/>
+      <c r="AT4" s="112">
+        <f ca="1">AT5</f>
         <v>44193</v>
       </c>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
-      <c r="AI4" s="116"/>
-      <c r="AJ4" s="116"/>
-      <c r="AK4" s="116"/>
-      <c r="AL4" s="117"/>
-      <c r="AM4" s="115">
-        <f ca="1">AM5</f>
+      <c r="AU4" s="113"/>
+      <c r="AV4" s="113"/>
+      <c r="AW4" s="113"/>
+      <c r="AX4" s="113"/>
+      <c r="AY4" s="113"/>
+      <c r="AZ4" s="114"/>
+      <c r="BA4" s="112">
+        <f ca="1">BA5</f>
         <v>44200</v>
       </c>
-      <c r="AN4" s="116"/>
-      <c r="AO4" s="116"/>
-      <c r="AP4" s="116"/>
-      <c r="AQ4" s="116"/>
-      <c r="AR4" s="116"/>
-      <c r="AS4" s="117"/>
-      <c r="AT4" s="115">
-        <f ca="1">AT5</f>
+      <c r="BB4" s="113"/>
+      <c r="BC4" s="113"/>
+      <c r="BD4" s="113"/>
+      <c r="BE4" s="113"/>
+      <c r="BF4" s="113"/>
+      <c r="BG4" s="114"/>
+      <c r="BH4" s="112">
+        <f ca="1">BH5</f>
         <v>44207</v>
       </c>
-      <c r="AU4" s="116"/>
-      <c r="AV4" s="116"/>
-      <c r="AW4" s="116"/>
-      <c r="AX4" s="116"/>
-      <c r="AY4" s="116"/>
-      <c r="AZ4" s="117"/>
-      <c r="BA4" s="115">
-        <f ca="1">BA5</f>
-        <v>44214</v>
-      </c>
-      <c r="BB4" s="116"/>
-      <c r="BC4" s="116"/>
-      <c r="BD4" s="116"/>
-      <c r="BE4" s="116"/>
-      <c r="BF4" s="116"/>
-      <c r="BG4" s="117"/>
-      <c r="BH4" s="115">
-        <f ca="1">BH5</f>
-        <v>44221</v>
-      </c>
-      <c r="BI4" s="116"/>
-      <c r="BJ4" s="116"/>
-      <c r="BK4" s="116"/>
-      <c r="BL4" s="116"/>
-      <c r="BM4" s="116"/>
-      <c r="BN4" s="117"/>
+      <c r="BI4" s="113"/>
+      <c r="BJ4" s="113"/>
+      <c r="BK4" s="113"/>
+      <c r="BL4" s="113"/>
+      <c r="BM4" s="113"/>
+      <c r="BN4" s="114"/>
     </row>
     <row r="5" spans="2:66" ht="15" customHeight="1">
       <c r="B5" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
       <c r="K5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44172</v>
+        <v>44158</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" ref="L5:AQ5" ca="1" si="0">K5+1</f>
-        <v>44173</v>
+        <v>44159</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44174</v>
+        <v>44160</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44175</v>
+        <v>44161</v>
       </c>
       <c r="O5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44176</v>
+        <v>44162</v>
       </c>
       <c r="P5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44177</v>
+        <v>44163</v>
       </c>
       <c r="Q5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44178</v>
+        <v>44164</v>
       </c>
       <c r="R5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44179</v>
+        <v>44165</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44180</v>
+        <v>44166</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44181</v>
+        <v>44167</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44182</v>
+        <v>44168</v>
       </c>
       <c r="V5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44183</v>
+        <v>44169</v>
       </c>
       <c r="W5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44184</v>
+        <v>44170</v>
       </c>
       <c r="X5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44185</v>
+        <v>44171</v>
       </c>
       <c r="Y5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44186</v>
+        <v>44172</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44187</v>
+        <v>44173</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44188</v>
+        <v>44174</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44189</v>
+        <v>44175</v>
       </c>
       <c r="AC5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44190</v>
+        <v>44176</v>
       </c>
       <c r="AD5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44191</v>
+        <v>44177</v>
       </c>
       <c r="AE5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44192</v>
+        <v>44178</v>
       </c>
       <c r="AF5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44193</v>
+        <v>44179</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44194</v>
+        <v>44180</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44195</v>
+        <v>44181</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44196</v>
+        <v>44182</v>
       </c>
       <c r="AJ5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44197</v>
+        <v>44183</v>
       </c>
       <c r="AK5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44198</v>
+        <v>44184</v>
       </c>
       <c r="AL5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44199</v>
+        <v>44185</v>
       </c>
       <c r="AM5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44200</v>
+        <v>44186</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44201</v>
+        <v>44187</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44202</v>
+        <v>44188</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44203</v>
+        <v>44189</v>
       </c>
       <c r="AQ5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44204</v>
+        <v>44190</v>
       </c>
       <c r="AR5" s="10">
         <f t="shared" ref="AR5:BN5" ca="1" si="1">AQ5+1</f>
-        <v>44205</v>
+        <v>44191</v>
       </c>
       <c r="AS5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44206</v>
+        <v>44192</v>
       </c>
       <c r="AT5" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44207</v>
+        <v>44193</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44208</v>
+        <v>44194</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44210</v>
+        <v>44196</v>
       </c>
       <c r="AX5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44211</v>
+        <v>44197</v>
       </c>
       <c r="AY5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44212</v>
+        <v>44198</v>
       </c>
       <c r="AZ5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44213</v>
+        <v>44199</v>
       </c>
       <c r="BA5" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44214</v>
+        <v>44200</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44215</v>
+        <v>44201</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44216</v>
+        <v>44202</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44217</v>
+        <v>44203</v>
       </c>
       <c r="BE5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44218</v>
+        <v>44204</v>
       </c>
       <c r="BF5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44219</v>
+        <v>44205</v>
       </c>
       <c r="BG5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44220</v>
+        <v>44206</v>
       </c>
       <c r="BH5" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44221</v>
+        <v>44207</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44222</v>
+        <v>44208</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44223</v>
+        <v>44209</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44224</v>
+        <v>44210</v>
       </c>
       <c r="BL5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44225</v>
+        <v>44211</v>
       </c>
       <c r="BM5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44226</v>
+        <v>44212</v>
       </c>
       <c r="BN5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44227</v>
+        <v>44213</v>
       </c>
     </row>
     <row r="6" spans="2:66" ht="30" customHeight="1" thickBot="1">
@@ -2473,11 +2473,11 @@
       </c>
       <c r="G9" s="64">
         <f ca="1">Project_Start</f>
-        <v>44171</v>
+        <v>44159</v>
       </c>
       <c r="H9" s="64">
         <f ca="1">G9+3</f>
-        <v>44174</v>
+        <v>44162</v>
       </c>
       <c r="I9" s="91">
         <v>1</v>
@@ -2543,7 +2543,7 @@
       <c r="BM9" s="43"/>
       <c r="BN9" s="43"/>
     </row>
-    <row r="10" spans="2:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="10" spans="2:66" s="3" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
       <c r="B10" s="76">
         <v>2</v>
       </c>
@@ -2561,11 +2561,11 @@
       </c>
       <c r="G10" s="64">
         <f ca="1">H9</f>
-        <v>44174</v>
+        <v>44162</v>
       </c>
       <c r="H10" s="64">
         <f ca="1">G10+2</f>
-        <v>44176</v>
+        <v>44164</v>
       </c>
       <c r="I10" s="91">
         <v>3</v>
@@ -2649,11 +2649,11 @@
       </c>
       <c r="G11" s="64">
         <f ca="1">H10</f>
-        <v>44176</v>
+        <v>44164</v>
       </c>
       <c r="H11" s="64">
         <f ca="1">G11+2</f>
-        <v>44178</v>
+        <v>44166</v>
       </c>
       <c r="I11" s="91">
         <v>3</v>
@@ -2810,11 +2810,11 @@
       </c>
       <c r="G13" s="65">
         <f ca="1">Project_Start</f>
-        <v>44171</v>
+        <v>44159</v>
       </c>
       <c r="H13" s="65">
         <f ca="1">G13+4</f>
-        <v>44175</v>
+        <v>44163</v>
       </c>
       <c r="I13" s="93">
         <v>1</v>
@@ -2898,11 +2898,11 @@
       </c>
       <c r="G14" s="65">
         <f ca="1">G13+2</f>
-        <v>44173</v>
+        <v>44161</v>
       </c>
       <c r="H14" s="65">
         <f ca="1">G14+5</f>
-        <v>44178</v>
+        <v>44166</v>
       </c>
       <c r="I14" s="93">
         <v>3</v>
@@ -2986,11 +2986,11 @@
       </c>
       <c r="G15" s="65">
         <f ca="1">H14</f>
-        <v>44178</v>
+        <v>44166</v>
       </c>
       <c r="H15" s="65">
         <f ca="1">G15+3</f>
-        <v>44181</v>
+        <v>44169</v>
       </c>
       <c r="I15" s="93">
         <v>2</v>
@@ -3074,11 +3074,11 @@
       </c>
       <c r="G16" s="65">
         <f ca="1">G15</f>
-        <v>44178</v>
+        <v>44166</v>
       </c>
       <c r="H16" s="65">
         <f ca="1">G16+2</f>
-        <v>44180</v>
+        <v>44168</v>
       </c>
       <c r="I16" s="93">
         <v>3</v>
@@ -3158,11 +3158,11 @@
       </c>
       <c r="G17" s="65">
         <f ca="1">G16</f>
-        <v>44178</v>
+        <v>44166</v>
       </c>
       <c r="H17" s="65">
         <f ca="1">G17+3</f>
-        <v>44181</v>
+        <v>44169</v>
       </c>
       <c r="I17" s="93"/>
       <c r="J17" s="16">
@@ -3320,11 +3320,11 @@
       </c>
       <c r="G19" s="66">
         <f ca="1">Project_Start</f>
-        <v>44171</v>
+        <v>44159</v>
       </c>
       <c r="H19" s="66">
         <f ca="1">G19+5</f>
-        <v>44176</v>
+        <v>44164</v>
       </c>
       <c r="I19" s="95">
         <v>2</v>
@@ -3408,11 +3408,11 @@
       </c>
       <c r="G20" s="66">
         <f ca="1">Project_Start</f>
-        <v>44171</v>
+        <v>44159</v>
       </c>
       <c r="H20" s="66">
         <f ca="1">G20+5</f>
-        <v>44176</v>
+        <v>44164</v>
       </c>
       <c r="I20" s="95">
         <v>1</v>
@@ -3496,11 +3496,11 @@
       </c>
       <c r="G21" s="66">
         <f ca="1">H19+1</f>
-        <v>44177</v>
+        <v>44165</v>
       </c>
       <c r="H21" s="66">
         <f ca="1">G21+4</f>
-        <v>44181</v>
+        <v>44169</v>
       </c>
       <c r="I21" s="95">
         <v>3</v>
@@ -3584,11 +3584,11 @@
       </c>
       <c r="G22" s="66">
         <f ca="1">G21+5</f>
-        <v>44182</v>
+        <v>44170</v>
       </c>
       <c r="H22" s="66">
         <f ca="1">G22+5</f>
-        <v>44187</v>
+        <v>44175</v>
       </c>
       <c r="I22" s="95">
         <v>3</v>
@@ -3672,11 +3672,11 @@
       </c>
       <c r="G23" s="66">
         <f ca="1">H22+1</f>
-        <v>44188</v>
+        <v>44176</v>
       </c>
       <c r="H23" s="66">
         <f ca="1">G23+4</f>
-        <v>44192</v>
+        <v>44180</v>
       </c>
       <c r="I23" s="95">
         <v>2</v>
@@ -4572,6 +4572,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AT4:AZ4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BH4:BN4"/>
     <mergeCell ref="G3:H3"/>
@@ -4579,11 +4584,6 @@
     <mergeCell ref="R4:X4"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AT4:AZ4"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F27 F33">
     <cfRule type="dataBar" priority="15">
@@ -4685,14 +4685,14 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="87.140625" style="46" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
-    <row r="2" spans="1:2" s="48" customFormat="1" ht="15.6">
+    <row r="2" spans="1:2" s="48" customFormat="1" ht="15.75">
       <c r="A2" s="47" t="s">
         <v>2</v>
       </c>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="B3" s="53"/>
     </row>
-    <row r="4" spans="1:2" s="49" customFormat="1" ht="25.9">
+    <row r="4" spans="1:2" s="49" customFormat="1" ht="26.25">
       <c r="A4" s="50" t="s">
         <v>58</v>
       </c>
@@ -4724,12 +4724,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="49" customFormat="1" ht="25.9">
+    <row r="8" spans="1:2" s="49" customFormat="1" ht="26.25">
       <c r="A8" s="50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57.6">
+    <row r="9" spans="1:2" ht="60">
       <c r="A9" s="51" t="s">
         <v>63</v>
       </c>
@@ -4739,12 +4739,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="49" customFormat="1" ht="25.9">
+    <row r="11" spans="1:2" s="49" customFormat="1" ht="26.25">
       <c r="A11" s="50" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.9">
+    <row r="12" spans="1:2" ht="30">
       <c r="A12" s="51" t="s">
         <v>66</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="49" customFormat="1" ht="25.9">
+    <row r="14" spans="1:2" s="49" customFormat="1" ht="26.25">
       <c r="A14" s="50" t="s">
         <v>68</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="72">
+    <row r="16" spans="1:2" ht="75">
       <c r="A16" s="51" t="s">
         <v>70</v>
       </c>
@@ -4789,15 +4789,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100573619B3A015124085FC3B0911EA2F34" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0052ead1ece8e58af6eb2da5cbaed769">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d3826b0f-77af-4b4f-9de7-8a18c9117b77" xmlns:ns4="593968f7-bac1-4a51-9534-f87e26572fbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="140869bbf60580c9636676583e15be38" ns3:_="" ns4:_="">
     <xsd:import namespace="d3826b0f-77af-4b4f-9de7-8a18c9117b77"/>
@@ -5008,14 +4999,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B5CF87A-EF2B-4830-9FFA-CA3AA7629BBF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9863F8CF-654A-45F5-8FB7-335B5E69B573}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDA59437-1966-4725-8CFA-F8102242D146}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDA59437-1966-4725-8CFA-F8102242D146}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9863F8CF-654A-45F5-8FB7-335B5E69B573}"/>
 </file>